--- a/Assignment case study.xlsx
+++ b/Assignment case study.xlsx
@@ -1,30 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\case study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nafna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246807F8-6A38-44BB-8987-20BF3D9205F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1 to 7" sheetId="1" r:id="rId1"/>
     <sheet name="Question 8" sheetId="2" r:id="rId2"/>
     <sheet name="Question 9" sheetId="3" r:id="rId3"/>
-    <sheet name="Question 11" sheetId="4" r:id="rId4"/>
-    <sheet name="Question 17" sheetId="5" r:id="rId5"/>
-    <sheet name="Question 18 &amp; 19" sheetId="6" r:id="rId6"/>
+    <sheet name="Question 10" sheetId="7" r:id="rId4"/>
+    <sheet name="Question 11" sheetId="4" r:id="rId5"/>
+    <sheet name="Question 17" sheetId="5" r:id="rId6"/>
+    <sheet name="Question 18 &amp; 19" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Question 10'!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Question 11'!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Question 11'!$A$2:$A$11</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>Weight</t>
   </si>
@@ -232,12 +250,27 @@
   <si>
     <t>.</t>
   </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>Q1(25th percantile)</t>
+  </si>
+  <si>
+    <t>Q2(50th percantile)</t>
+  </si>
+  <si>
+    <t>Q3(75th percantile)</t>
+  </si>
+  <si>
+    <t>computed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -280,13 +313,33 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="36">
@@ -770,8 +823,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="53">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,15 +841,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -806,9 +855,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -817,9 +863,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -836,17 +879,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -858,39 +894,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1057,35 +1114,35 @@
     </dxf>
   </dxfs>
   <tableStyles count="6">
-    <tableStyle name="Question 1 to 7-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="firstRowStripe" dxfId="17"/>
-      <tableStyleElement type="secondRowStripe" dxfId="16"/>
+    <tableStyle name="Question 1 to 7-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="secondRowStripe" dxfId="17"/>
     </tableStyle>
-    <tableStyle name="Question 8-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
+    <tableStyle name="Question 8-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="Question 9-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+    <tableStyle name="Question 9-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle name="Question 11-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="secondRowStripe" dxfId="7"/>
+    <tableStyle name="Question 11-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="Question 17-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+    <tableStyle name="Question 17-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="Question 18 &amp; 19-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+    <tableStyle name="Question 18 &amp; 19-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1100,7 +1157,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -1132,7 +1189,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1223,6 +1279,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-165C-453E-B18F-3F11934FA50B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1288,7 +1349,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1370,7 +1430,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1402,7 +1461,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1432,6 +1490,1206 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{D4065DFD-097F-4E4B-8B24-2338FC1C2025}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>HISTOGRAM</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>HISTOGRAM</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{5AD996DA-EE8D-4EAC-9AC2-6D97BC42BD28}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -1444,7 +2702,13 @@
     <xdr:ext cx="5715000" cy="3495675"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1462,83 +2726,249 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B92CA42-9518-C120-BE84-9C1A64A67A57}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4800600" y="1146810"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4240495-C4D5-D367-9224-B1D33152251E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2735580" y="430530"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D15">
   <tableColumns count="4">
-    <tableColumn id="1" name="Weight"/>
-    <tableColumn id="2" name="Metric"/>
-    <tableColumn id="3" name="Computed"/>
-    <tableColumn id="4" name="z score"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Weight"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Metric"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Computed"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="z score"/>
   </tableColumns>
   <tableStyleInfo name="Question 1 to 7-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C6">
   <tableColumns count="3">
-    <tableColumn id="1" name="X"/>
-    <tableColumn id="2" name="Y"/>
-    <tableColumn id="3" name="Pearson Correlation coefficient" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="X"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Y"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Pearson Correlation coefficient" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Question 8-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:B6">
   <tableColumns count="2">
-    <tableColumn id="1" name="X"/>
-    <tableColumn id="2" name="Y"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="X"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Y"/>
   </tableColumns>
   <tableStyleInfo name="Question 9-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:A11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A1:A11" headerRowDxfId="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="Data"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Data"/>
   </tableColumns>
   <tableStyleInfo name="Question 11-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table6" displayName="Table6" ref="A1:L8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="A1:L8">
   <tableColumns count="12">
-    <tableColumn id="1" name="Data"/>
-    <tableColumn id="2" name="sample mean"/>
-    <tableColumn id="3" name="sample size"/>
-    <tableColumn id="4" name="sqrt_sample size"/>
-    <tableColumn id="5" name="population mean"/>
-    <tableColumn id="6" name="Column 1"/>
-    <tableColumn id="7" name="Column 2"/>
-    <tableColumn id="8" name="data - sample mean"/>
-    <tableColumn id="9" name="square"/>
-    <tableColumn id="10" name="sum"/>
-    <tableColumn id="11" name="sum/6(sum/n-1)"/>
-    <tableColumn id="12" name="Sqrt"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Data"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="sample mean"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="sample size"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="sqrt_sample size"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="population mean"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Column 1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Column 2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="data - sample mean"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="square"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="sum"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="sum/6(sum/n-1)"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Sqrt"/>
   </tableColumns>
   <tableStyleInfo name="Question 17-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table7" displayName="Table7" ref="A1:L6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A1:L6">
   <tableColumns count="12">
-    <tableColumn id="1" name="X"/>
-    <tableColumn id="2" name="Y"/>
-    <tableColumn id="3" name="Sample Mean X"/>
-    <tableColumn id="4" name="Sample Mean Y"/>
-    <tableColumn id="5" name="X - Sample Mean X"/>
-    <tableColumn id="6" name="Y - Sample Mean Y"/>
-    <tableColumn id="7" name="Square of X - Sample Mean X"/>
-    <tableColumn id="8" name="Square of Y - Sample Mean Y"/>
-    <tableColumn id="9" name="Sum x"/>
-    <tableColumn id="10" name="Sum y"/>
-    <tableColumn id="11" name="Sum x/4"/>
-    <tableColumn id="12" name="sum y/4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="X"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Y"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Sample Mean X"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Sample Mean Y"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="X - Sample Mean X"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Y - Sample Mean Y"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Square of X - Sample Mean X"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Square of Y - Sample Mean Y"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Sum x"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Sum y"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Sum x/4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="sum y/4"/>
   </tableColumns>
   <tableStyleInfo name="Question 18 &amp; 19-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1741,25 +3171,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="2" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1773,39 +3203,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <f>AVERAGE(A2:A12)</f>
         <v>17.100000000000001</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>(A2-C2)/$C$15</f>
         <v>-1.156901878035941</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <f>MEDIAN(A2:A12)</f>
         <v>17.5</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <f>(A3-C2)/C15</f>
         <v>-0.47637136154421117</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>14</v>
       </c>
@@ -1815,108 +3245,108 @@
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f>(A4-C2)/C15</f>
         <v>-0.70321486704145442</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <f>_xlfn.PERCENTILE.INC(A2:A12, 0.25)</f>
         <v>14.25</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f>(A5-C2)/$C$15</f>
         <v>-1.6105888890304276</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <f>_xlfn.PERCENTILE.INC(A2:A12, 0.5)</f>
         <v>17.5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f>(A6-C2)/$C$15</f>
         <v>0.20415915494751863</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <f>_xlfn.PERCENTILE.INC(A2:A12, 0.75)</f>
         <v>19.75</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" ref="D7:D10" si="0">(A7-$C$2)/$C$15</f>
         <v>0.65784616594200518</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <f>(C7-C5)</f>
         <v>5.5</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>1.1115331769364918</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <f>MIN(A2:A12)</f>
         <v>10</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>1.5652201879309782</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <f>MAX(A2:A12)</f>
         <v>24</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>-2.268435054972465E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>19</v>
       </c>
@@ -1926,217 +3356,222 @@
       <c r="C11" s="4">
         <v>14</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <f>(A11- C2)/$C$15</f>
         <v>0.43100266044476188</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <f>(C5-1.5*C8)</f>
         <v>6</v>
       </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <f>(C7+1.5*C8)</f>
         <v>28</v>
       </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <f>VAR(A2:A12)</f>
         <v>19.433333333333344</v>
       </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <f>STDEV(A2:A12)</f>
         <v>4.4083254568297638</v>
       </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="44" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="45"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="45"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="45"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="44" t="s">
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="44" t="s">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="44" t="s">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="12"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A17:H17"/>
@@ -2144,14 +3579,9 @@
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A15 C2:D15">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A15 C2:D15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -2163,7 +3593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2171,75 +3601,75 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>10</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="30">
         <v>5</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="48">
         <f>CORREL(A2:A6, B2:B6)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>20</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="30">
         <v>10</v>
       </c>
-      <c r="C3" s="53"/>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="C3" s="33"/>
+    </row>
+    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>30</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="30">
         <v>15</v>
       </c>
-      <c r="C4" s="53"/>
-    </row>
-    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+      <c r="C4" s="33"/>
+    </row>
+    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>40</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="30">
         <v>20</v>
       </c>
-      <c r="C5" s="53"/>
-    </row>
-    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+      <c r="C5" s="33"/>
+    </row>
+    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>50</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="30">
         <v>25</v>
       </c>
-      <c r="C6" s="54"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="51"/>
+      <c r="C6" s="34"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2250,7 +3680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2261,58 +3691,58 @@
       <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>10</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>20</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>30</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>40</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>50</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H19" s="18"/>
+    <row r="19" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2324,7 +3754,144 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABEA89F-2EC2-4F93-B324-8FCE3C105146}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="32">
+        <v>12</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="32">
+        <f>PERCENTILE(A2:A11,0.25)</f>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>15</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="32">
+        <f>PERCENTILE(A2:A11,0.5)</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>14</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="32">
+        <f>PERCENTILE(A2:A11,0.75)</f>
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>10</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="32">
+        <f>(D2-1.5*D10)</f>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>18</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="32">
+        <f>(D4+1.5*D10)</f>
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
+        <v>20</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <v>22</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
+        <v>24</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="32"/>
+    </row>
+    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>17</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="32"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>19</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2332,76 +3899,77 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2412,264 +3980,264 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="4">
         <f>AVERAGE(A2:A8)</f>
         <v>53.142857142857146</v>
       </c>
       <c r="C2" s="4">
         <v>7</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="4">
         <f>SQRT(C2)</f>
         <v>2.6457513110645907</v>
       </c>
       <c r="E2" s="4">
         <v>50</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4">
         <f>A2-B2</f>
         <v>-8.1428571428571459</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="4">
         <f t="shared" ref="I2:I8" si="0">H2*H2</f>
         <v>66.306122448979636</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="4">
         <f>SUM(I2:I8)</f>
         <v>232.85714285714283</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="4">
         <f>J2/6</f>
         <v>38.809523809523803</v>
       </c>
-      <c r="L2" s="27">
+      <c r="L2" s="4">
         <f>SQRT(K2)</f>
         <v>6.2297290317897298</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>50</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
         <f>A3-B2</f>
         <v>-3.1428571428571459</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="4">
         <f t="shared" si="0"/>
         <v>9.8775510204081822</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>55</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
         <f t="shared" ref="H4:H8" si="1">A4-$B$2</f>
         <v>1.8571428571428541</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="4">
         <f t="shared" si="0"/>
         <v>3.4489795918367232</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>60</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
         <f t="shared" si="1"/>
         <v>6.8571428571428541</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="4">
         <f t="shared" si="0"/>
         <v>47.020408163265266</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>62</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
         <f t="shared" si="1"/>
         <v>8.8571428571428541</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>78.448979591836675</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>48</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
         <f t="shared" si="1"/>
         <v>-5.1428571428571459</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>26.448979591836768</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>52</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
         <f t="shared" si="1"/>
         <v>-1.1428571428571459</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="4">
         <f t="shared" si="0"/>
         <v>1.3061224489795988</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C11" s="29" t="s">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="23">
         <f>(B2-E2)/(L2/D2)</f>
         <v>1.3347640585603673</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="29" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="23">
         <v>2.4470000000000001</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C13" s="46" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2682,140 +4250,140 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="8" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="8" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>85</v>
       </c>
       <c r="B2" s="4">
         <v>78</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="4">
         <f t="shared" ref="C2:D2" si="0">AVERAGE(A2:A6)</f>
         <v>88.2</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="4">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="4">
         <f t="shared" ref="E2:F2" si="1">A2-C2</f>
         <v>-3.2000000000000028</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="4">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="4">
         <f t="shared" ref="G2:H2" si="2">E2*E2</f>
         <v>10.240000000000018</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="4">
         <f t="shared" ref="I2:J2" si="3">SUM(G2:G6)</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="4">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="4">
         <f t="shared" ref="K2:L2" si="4">I2/4</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="L2" s="27">
+      <c r="L2" s="4">
         <f t="shared" si="4"/>
         <v>8.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>90</v>
       </c>
       <c r="B3" s="4">
         <v>75</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4">
         <f t="shared" ref="E3:E6" si="5">A3-$C$2</f>
         <v>1.7999999999999972</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="4">
         <f t="shared" ref="F3:F6" si="6">B3-$D$2</f>
         <v>-4</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="4">
         <f t="shared" ref="G3:H3" si="7">E3*E3</f>
         <v>3.2399999999999896</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="4">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="5" t="s">
         <v>60</v>
       </c>
@@ -2823,69 +4391,69 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>88</v>
       </c>
       <c r="B4" s="4">
         <v>80</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
         <f t="shared" si="5"/>
         <v>-0.20000000000000284</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="4">
         <f t="shared" ref="G4:H4" si="8">E4*E4</f>
         <v>4.0000000000001139E-2</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
         <f t="shared" ref="K4:L4" si="9">SQRT(K2)</f>
         <v>2.8635642126552705</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="4">
         <f t="shared" si="9"/>
         <v>2.9154759474226504</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>92</v>
       </c>
       <c r="B5" s="4">
         <v>83</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
         <f t="shared" si="5"/>
         <v>3.7999999999999972</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="4">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="4">
         <f t="shared" ref="G5:H5" si="10">E5*E5</f>
         <v>14.439999999999978</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="4">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="5" t="s">
         <v>43</v>
       </c>
@@ -2893,92 +4461,92 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>86</v>
       </c>
       <c r="B6" s="4">
         <v>79</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
         <f t="shared" si="5"/>
         <v>-2.2000000000000028</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="4">
         <f t="shared" ref="G6:H6" si="11">E6*E6</f>
         <v>4.8400000000000123</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
         <f t="shared" ref="K6:L6" si="12">K4*K4</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="4">
         <f t="shared" si="12"/>
         <v>8.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E9" s="29" t="s">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="23">
         <f>((5-1)*K6+(5-1)*L6)/8</f>
         <v>8.35</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E10" s="29" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="23">
         <f>(C2-D2)/(SQRT(F9*((1/5)+(1/5))))</f>
         <v>5.0340160275141628</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E11" s="29" t="s">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="23">
         <v>2.306</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E12" s="35" t="s">
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E16" s="36" t="s">
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="29" t="s">
         <v>65</v>
       </c>
     </row>
